--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐佩轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱家军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +260,42 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵宏升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马乔龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁大伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑小云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐佩烜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤率加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪，祁忠举，杨莉，张美玲，黑霞，谢军，赵福霞，樊俊彬，朱奉，撒金武，向薇，汤杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,73 +699,73 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -744,17 +776,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -765,17 +799,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -786,17 +822,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -804,20 +842,22 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -825,20 +865,22 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -846,20 +888,20 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -869,7 +911,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -882,7 +924,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -892,25 +934,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -918,7 +960,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>85</v>
@@ -940,7 +982,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -964,7 +1006,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -988,7 +1030,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1012,7 +1054,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1036,7 +1078,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1060,7 +1102,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1070,6 +1112,17 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>赵雪，祁忠举，杨莉，张美玲，黑霞，谢军，赵福霞，樊俊彬，朱奉，撒金武，向薇，汤杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海玉梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍永喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禹慧军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵宏升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒金武</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,12 +351,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -364,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +414,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +726,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,22 +978,22 @@
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="1"/>
@@ -959,22 +1001,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>85</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>79</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>93</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>65</v>
       </c>
       <c r="H13" s="1"/>
@@ -984,23 +1026,47 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="6">
+        <v>69</v>
+      </c>
+      <c r="C15" s="6">
+        <v>74</v>
+      </c>
+      <c r="D15" s="6">
+        <v>80</v>
+      </c>
+      <c r="E15" s="6">
+        <v>97</v>
+      </c>
+      <c r="F15" s="6">
+        <v>66</v>
+      </c>
+      <c r="G15" s="6">
+        <v>82</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t>撒金武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马小龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,13 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +730,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,7 +792,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -813,7 +817,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -836,7 +840,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -859,7 +863,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,7 +886,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -905,7 +909,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,7 +932,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,9 +953,11 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
@@ -962,7 +968,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
@@ -978,22 +984,22 @@
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="1"/>
@@ -1001,22 +1007,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>85</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>79</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>93</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>7</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>65</v>
       </c>
       <c r="H13" s="1"/>
@@ -1026,22 +1032,22 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="1"/>
@@ -1049,22 +1055,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>69</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>74</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>80</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>97</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>66</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>82</v>
       </c>
       <c r="H15" s="1"/>

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>马小龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐佩烜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁存虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁大伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +754,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,23 +1104,47 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="5">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5">
+        <v>82</v>
+      </c>
+      <c r="D17" s="5">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5">
+        <v>74</v>
+      </c>
+      <c r="G17" s="5">
+        <v>37</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,30 @@
   </si>
   <si>
     <t>马军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱佳军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍永喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵宏升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒金武</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +778,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,23 +1176,47 @@
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="5">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5">
+        <v>94</v>
+      </c>
+      <c r="E19" s="5">
+        <v>82</v>
+      </c>
+      <c r="F19" s="5">
+        <v>74</v>
+      </c>
+      <c r="G19" s="5">
+        <v>40</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_msoanchor_1" localSheetId="0">Sheet1!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,26 @@
   </si>
   <si>
     <t>赵宏升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒金武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱佳军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禹慧军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊俊斌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -378,28 +398,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -412,13 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,16 +496,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,7 +574,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -598,7 +608,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,14 +783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -791,7 +800,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -816,7 +825,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -839,7 +848,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -864,7 +873,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -887,7 +896,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -910,7 +919,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -933,7 +942,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>67</v>
@@ -956,7 +965,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -979,7 +988,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1000,7 +1009,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1015,7 +1024,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1028,7 +1037,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1053,7 +1062,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
         <v>60</v>
@@ -1076,7 +1085,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1110,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
         <v>69</v>
@@ -1124,7 +1133,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1149,7 +1158,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
         <v>83</v>
@@ -1172,7 +1181,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1197,7 +1206,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
         <v>65</v>
@@ -1220,31 +1229,55 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="5">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5">
+        <v>91</v>
+      </c>
+      <c r="E21" s="5">
+        <v>95</v>
+      </c>
+      <c r="F21" s="5">
+        <v>87</v>
+      </c>
+      <c r="G21" s="5">
+        <v>38</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1257,7 +1290,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1268,7 +1301,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1281,7 +1314,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -1303,12 +1336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,12 +1349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_msoanchor_1" localSheetId="0">Sheet1!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,14 +392,22 @@
   </si>
   <si>
     <t>撒金武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海建明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,13 +470,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,17 +509,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,6 +604,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -608,6 +639,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,14 +815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -800,7 +832,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -825,7 +857,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -848,7 +880,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -873,7 +905,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -896,7 +928,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -919,7 +951,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -942,7 +974,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>67</v>
@@ -965,7 +997,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -988,7 +1020,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1009,7 +1041,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1024,7 +1056,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1037,7 +1069,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1062,7 +1094,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
         <v>60</v>
@@ -1085,7 +1117,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +1142,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
         <v>69</v>
@@ -1133,7 +1165,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1158,7 +1190,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
         <v>83</v>
@@ -1181,7 +1213,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1206,7 +1238,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
         <v>65</v>
@@ -1229,7 +1261,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1254,7 +1286,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
         <v>78</v>
@@ -1277,7 +1309,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1290,7 +1322,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1301,7 +1333,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1314,16 +1346,487 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5">
+        <v>82</v>
+      </c>
+      <c r="D25" s="5">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5">
+        <v>91</v>
+      </c>
+      <c r="F25" s="5">
+        <v>78</v>
+      </c>
+      <c r="G25" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="5">
+        <v>94</v>
+      </c>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="5">
+        <v>90</v>
+      </c>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5">
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="5">
+        <v>88</v>
+      </c>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="5">
+        <v>91</v>
+      </c>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="5">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="5">
+        <v>78</v>
+      </c>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="5">
+        <v>75</v>
+      </c>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="5">
+        <v>82</v>
+      </c>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="5">
+        <v>85</v>
+      </c>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="5">
+        <v>88</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="5">
+        <v>85</v>
+      </c>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="5">
+        <v>84</v>
+      </c>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="5">
+        <v>72</v>
+      </c>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="5">
+        <v>68</v>
+      </c>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>87</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="5">
+        <v>78</v>
+      </c>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5">
+        <v>75</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="5">
+        <v>77</v>
+      </c>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="5">
+        <v>75</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="5">
+        <v>62</v>
+      </c>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5">
+        <v>91</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="5">
+        <v>76</v>
+      </c>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="5">
+        <v>88</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="5">
+        <v>75</v>
+      </c>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="5">
+        <v>78</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="5">
+        <v>78</v>
+      </c>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="5">
+        <v>85</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="5">
+        <v>64</v>
+      </c>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5">
+        <v>71</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="5">
+        <v>65</v>
+      </c>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="5">
+        <v>72</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="5">
+        <v>68</v>
+      </c>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="5">
+        <v>81</v>
+      </c>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5">
+        <v>76</v>
+      </c>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="5">
+        <v>77</v>
+      </c>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1336,12 +1839,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,12 +1852,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
